--- a/2022/SAMSUNG/JUNE/18.06.2022/SAMSUNG Bank Statement June-2022.xlsx
+++ b/2022/SAMSUNG/JUNE/18.06.2022/SAMSUNG Bank Statement June-2022.xlsx
@@ -2185,7 +2185,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3300,6 +3300,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="46" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3312,6 +3319,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3339,36 +3370,12 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3476,19 +3483,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="46" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3963,33 +3957,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="388"/>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
+      <c r="A1" s="391"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="389"/>
-      <c r="B2" s="386" t="s">
+      <c r="A2" s="392"/>
+      <c r="B2" s="389" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="389"/>
-      <c r="B3" s="387" t="s">
+      <c r="A3" s="392"/>
+      <c r="B3" s="390" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="387"/>
-      <c r="D3" s="387"/>
-      <c r="E3" s="387"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="389"/>
+      <c r="A4" s="392"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4007,7 +4001,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="389"/>
+      <c r="A5" s="392"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4025,7 +4019,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="389"/>
+      <c r="A6" s="392"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4037,7 +4031,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="389"/>
+      <c r="A7" s="392"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -4056,7 +4050,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="389"/>
+      <c r="A8" s="392"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -4075,7 +4069,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="389"/>
+      <c r="A9" s="392"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -4094,7 +4088,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="389"/>
+      <c r="A10" s="392"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -4113,7 +4107,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="389"/>
+      <c r="A11" s="392"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -4132,7 +4126,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="389"/>
+      <c r="A12" s="392"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4151,7 +4145,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="389"/>
+      <c r="A13" s="392"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4170,7 +4164,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="389"/>
+      <c r="A14" s="392"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4189,7 +4183,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="389"/>
+      <c r="A15" s="392"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4208,7 +4202,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="389"/>
+      <c r="A16" s="392"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4221,7 +4215,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="389"/>
+      <c r="A17" s="392"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4234,7 +4228,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="389"/>
+      <c r="A18" s="392"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4247,7 +4241,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="389"/>
+      <c r="A19" s="392"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4260,7 +4254,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="389"/>
+      <c r="A20" s="392"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4273,7 +4267,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="389"/>
+      <c r="A21" s="392"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4286,7 +4280,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="389"/>
+      <c r="A22" s="392"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4299,7 +4293,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="389"/>
+      <c r="A23" s="392"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4312,7 +4306,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="389"/>
+      <c r="A24" s="392"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4325,7 +4319,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="389"/>
+      <c r="A25" s="392"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4338,7 +4332,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="389"/>
+      <c r="A26" s="392"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4351,7 +4345,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="389"/>
+      <c r="A27" s="392"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4364,7 +4358,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="389"/>
+      <c r="A28" s="392"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4377,7 +4371,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="389"/>
+      <c r="A29" s="392"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4390,7 +4384,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="389"/>
+      <c r="A30" s="392"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4403,7 +4397,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="389"/>
+      <c r="A31" s="392"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4416,7 +4410,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="389"/>
+      <c r="A32" s="392"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4429,7 +4423,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="389"/>
+      <c r="A33" s="392"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4442,7 +4436,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="389"/>
+      <c r="A34" s="392"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4455,7 +4449,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="389"/>
+      <c r="A35" s="392"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4468,7 +4462,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="389"/>
+      <c r="A36" s="392"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4481,7 +4475,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="389"/>
+      <c r="A37" s="392"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4494,7 +4488,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="389"/>
+      <c r="A38" s="392"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4507,7 +4501,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="389"/>
+      <c r="A39" s="392"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4520,7 +4514,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="389"/>
+      <c r="A40" s="392"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4533,7 +4527,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="389"/>
+      <c r="A41" s="392"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4546,7 +4540,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="389"/>
+      <c r="A42" s="392"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4559,7 +4553,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="389"/>
+      <c r="A43" s="392"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4572,7 +4566,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="389"/>
+      <c r="A44" s="392"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4585,7 +4579,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="389"/>
+      <c r="A45" s="392"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4598,7 +4592,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="389"/>
+      <c r="A46" s="392"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4611,7 +4605,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="389"/>
+      <c r="A47" s="392"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4624,7 +4618,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="389"/>
+      <c r="A48" s="392"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4637,7 +4631,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="389"/>
+      <c r="A49" s="392"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4650,7 +4644,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="389"/>
+      <c r="A50" s="392"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4663,7 +4657,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="389"/>
+      <c r="A51" s="392"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4676,7 +4670,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="389"/>
+      <c r="A52" s="392"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4689,7 +4683,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="389"/>
+      <c r="A53" s="392"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4702,7 +4696,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="389"/>
+      <c r="A54" s="392"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4715,7 +4709,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="389"/>
+      <c r="A55" s="392"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4727,7 +4721,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="389"/>
+      <c r="A56" s="392"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4739,7 +4733,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="389"/>
+      <c r="A57" s="392"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4751,7 +4745,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="389"/>
+      <c r="A58" s="392"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4763,7 +4757,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="389"/>
+      <c r="A59" s="392"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4775,7 +4769,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="389"/>
+      <c r="A60" s="392"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4787,7 +4781,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="389"/>
+      <c r="A61" s="392"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4799,7 +4793,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="389"/>
+      <c r="A62" s="392"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4811,7 +4805,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="389"/>
+      <c r="A63" s="392"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4823,7 +4817,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="389"/>
+      <c r="A64" s="392"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4835,7 +4829,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="389"/>
+      <c r="A65" s="392"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4847,7 +4841,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="389"/>
+      <c r="A66" s="392"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4859,7 +4853,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="389"/>
+      <c r="A67" s="392"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4871,7 +4865,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="389"/>
+      <c r="A68" s="392"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4883,7 +4877,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="389"/>
+      <c r="A69" s="392"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4895,7 +4889,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="389"/>
+      <c r="A70" s="392"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4907,7 +4901,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="389"/>
+      <c r="A71" s="392"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4919,7 +4913,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="389"/>
+      <c r="A72" s="392"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4931,7 +4925,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="389"/>
+      <c r="A73" s="392"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4943,7 +4937,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="389"/>
+      <c r="A74" s="392"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4955,7 +4949,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="389"/>
+      <c r="A75" s="392"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4967,7 +4961,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="389"/>
+      <c r="A76" s="392"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4979,7 +4973,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="389"/>
+      <c r="A77" s="392"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4991,7 +4985,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="389"/>
+      <c r="A78" s="392"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5003,7 +4997,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="389"/>
+      <c r="A79" s="392"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5015,7 +5009,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="389"/>
+      <c r="A80" s="392"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5027,7 +5021,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="389"/>
+      <c r="A81" s="392"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5039,7 +5033,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="389"/>
+      <c r="A82" s="392"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5051,7 +5045,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="389"/>
+      <c r="A83" s="392"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5108,33 +5102,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="388"/>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
+      <c r="A1" s="391"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="389"/>
-      <c r="B2" s="386" t="s">
+      <c r="A2" s="392"/>
+      <c r="B2" s="389" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="389"/>
-      <c r="B3" s="387" t="s">
+      <c r="A3" s="392"/>
+      <c r="B3" s="390" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="387"/>
-      <c r="D3" s="387"/>
-      <c r="E3" s="387"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="389"/>
+      <c r="A4" s="392"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5152,7 +5146,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="389"/>
+      <c r="A5" s="392"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5170,7 +5164,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="389"/>
+      <c r="A6" s="392"/>
       <c r="B6" s="26"/>
       <c r="C6" s="240"/>
       <c r="D6" s="240"/>
@@ -5182,7 +5176,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="389"/>
+      <c r="A7" s="392"/>
       <c r="B7" s="26" t="s">
         <v>191</v>
       </c>
@@ -5202,7 +5196,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="389"/>
+      <c r="A8" s="392"/>
       <c r="B8" s="26" t="s">
         <v>201</v>
       </c>
@@ -5222,7 +5216,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="389"/>
+      <c r="A9" s="392"/>
       <c r="B9" s="26" t="s">
         <v>204</v>
       </c>
@@ -5242,7 +5236,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="389"/>
+      <c r="A10" s="392"/>
       <c r="B10" s="26" t="s">
         <v>207</v>
       </c>
@@ -5262,7 +5256,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="389"/>
+      <c r="A11" s="392"/>
       <c r="B11" s="26" t="s">
         <v>209</v>
       </c>
@@ -5282,7 +5276,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="389"/>
+      <c r="A12" s="392"/>
       <c r="B12" s="26" t="s">
         <v>210</v>
       </c>
@@ -5302,7 +5296,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="389"/>
+      <c r="A13" s="392"/>
       <c r="B13" s="26" t="s">
         <v>212</v>
       </c>
@@ -5322,7 +5316,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="389"/>
+      <c r="A14" s="392"/>
       <c r="B14" s="26" t="s">
         <v>213</v>
       </c>
@@ -5342,7 +5336,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="389"/>
+      <c r="A15" s="392"/>
       <c r="B15" s="26" t="s">
         <v>214</v>
       </c>
@@ -5362,7 +5356,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="389"/>
+      <c r="A16" s="392"/>
       <c r="B16" s="26" t="s">
         <v>218</v>
       </c>
@@ -5382,7 +5376,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="389"/>
+      <c r="A17" s="392"/>
       <c r="B17" s="26" t="s">
         <v>219</v>
       </c>
@@ -5402,7 +5396,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="389"/>
+      <c r="A18" s="392"/>
       <c r="B18" s="26" t="s">
         <v>222</v>
       </c>
@@ -5422,7 +5416,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="389"/>
+      <c r="A19" s="392"/>
       <c r="B19" s="26" t="s">
         <v>222</v>
       </c>
@@ -5442,7 +5436,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="389"/>
+      <c r="A20" s="392"/>
       <c r="B20" s="26" t="s">
         <v>227</v>
       </c>
@@ -5462,7 +5456,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="389"/>
+      <c r="A21" s="392"/>
       <c r="B21" s="26"/>
       <c r="C21" s="240"/>
       <c r="D21" s="240"/>
@@ -5476,7 +5470,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="389"/>
+      <c r="A22" s="392"/>
       <c r="B22" s="26"/>
       <c r="C22" s="240"/>
       <c r="D22" s="242"/>
@@ -5490,7 +5484,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="389"/>
+      <c r="A23" s="392"/>
       <c r="B23" s="26"/>
       <c r="C23" s="240"/>
       <c r="D23" s="240"/>
@@ -5504,7 +5498,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="389"/>
+      <c r="A24" s="392"/>
       <c r="B24" s="26"/>
       <c r="C24" s="240"/>
       <c r="D24" s="242"/>
@@ -5518,7 +5512,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="389"/>
+      <c r="A25" s="392"/>
       <c r="B25" s="26"/>
       <c r="C25" s="240"/>
       <c r="D25" s="240"/>
@@ -5532,7 +5526,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="389"/>
+      <c r="A26" s="392"/>
       <c r="B26" s="26"/>
       <c r="C26" s="240"/>
       <c r="D26" s="240"/>
@@ -5546,7 +5540,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="389"/>
+      <c r="A27" s="392"/>
       <c r="B27" s="26"/>
       <c r="C27" s="240"/>
       <c r="D27" s="240"/>
@@ -5560,7 +5554,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="389"/>
+      <c r="A28" s="392"/>
       <c r="B28" s="26"/>
       <c r="C28" s="240"/>
       <c r="D28" s="242"/>
@@ -5574,7 +5568,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="389"/>
+      <c r="A29" s="392"/>
       <c r="B29" s="26"/>
       <c r="C29" s="240"/>
       <c r="D29" s="240"/>
@@ -5588,7 +5582,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="389"/>
+      <c r="A30" s="392"/>
       <c r="B30" s="26"/>
       <c r="C30" s="240"/>
       <c r="D30" s="240"/>
@@ -5602,7 +5596,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="389"/>
+      <c r="A31" s="392"/>
       <c r="B31" s="26"/>
       <c r="C31" s="240"/>
       <c r="D31" s="240"/>
@@ -5616,7 +5610,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="389"/>
+      <c r="A32" s="392"/>
       <c r="B32" s="26"/>
       <c r="C32" s="240"/>
       <c r="D32" s="240"/>
@@ -5630,7 +5624,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="389"/>
+      <c r="A33" s="392"/>
       <c r="B33" s="26"/>
       <c r="C33" s="240"/>
       <c r="D33" s="242"/>
@@ -5644,7 +5638,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="389"/>
+      <c r="A34" s="392"/>
       <c r="B34" s="26"/>
       <c r="C34" s="240"/>
       <c r="D34" s="240"/>
@@ -5658,7 +5652,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="389"/>
+      <c r="A35" s="392"/>
       <c r="B35" s="26"/>
       <c r="C35" s="240"/>
       <c r="D35" s="240"/>
@@ -5672,7 +5666,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="389"/>
+      <c r="A36" s="392"/>
       <c r="B36" s="26"/>
       <c r="C36" s="240"/>
       <c r="D36" s="240"/>
@@ -5686,7 +5680,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="389"/>
+      <c r="A37" s="392"/>
       <c r="B37" s="26"/>
       <c r="C37" s="240"/>
       <c r="D37" s="240"/>
@@ -5700,7 +5694,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="389"/>
+      <c r="A38" s="392"/>
       <c r="B38" s="26"/>
       <c r="C38" s="240"/>
       <c r="D38" s="240"/>
@@ -5714,7 +5708,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="389"/>
+      <c r="A39" s="392"/>
       <c r="B39" s="26"/>
       <c r="C39" s="240"/>
       <c r="D39" s="240"/>
@@ -5728,7 +5722,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="389"/>
+      <c r="A40" s="392"/>
       <c r="B40" s="26"/>
       <c r="C40" s="240"/>
       <c r="D40" s="240"/>
@@ -5742,7 +5736,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="389"/>
+      <c r="A41" s="392"/>
       <c r="B41" s="26"/>
       <c r="C41" s="240"/>
       <c r="D41" s="240"/>
@@ -5756,7 +5750,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="389"/>
+      <c r="A42" s="392"/>
       <c r="B42" s="26"/>
       <c r="C42" s="240"/>
       <c r="D42" s="240"/>
@@ -5770,7 +5764,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="389"/>
+      <c r="A43" s="392"/>
       <c r="B43" s="26"/>
       <c r="C43" s="240"/>
       <c r="D43" s="240"/>
@@ -5784,7 +5778,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="389"/>
+      <c r="A44" s="392"/>
       <c r="B44" s="26"/>
       <c r="C44" s="240"/>
       <c r="D44" s="240"/>
@@ -5798,7 +5792,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="389"/>
+      <c r="A45" s="392"/>
       <c r="B45" s="26"/>
       <c r="C45" s="240"/>
       <c r="D45" s="240"/>
@@ -5812,7 +5806,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="389"/>
+      <c r="A46" s="392"/>
       <c r="B46" s="26"/>
       <c r="C46" s="240"/>
       <c r="D46" s="240"/>
@@ -5826,7 +5820,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="389"/>
+      <c r="A47" s="392"/>
       <c r="B47" s="26"/>
       <c r="C47" s="240"/>
       <c r="D47" s="240"/>
@@ -5840,7 +5834,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="389"/>
+      <c r="A48" s="392"/>
       <c r="B48" s="26"/>
       <c r="C48" s="240"/>
       <c r="D48" s="240"/>
@@ -5854,7 +5848,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="389"/>
+      <c r="A49" s="392"/>
       <c r="B49" s="26"/>
       <c r="C49" s="240"/>
       <c r="D49" s="240"/>
@@ -5868,7 +5862,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="389"/>
+      <c r="A50" s="392"/>
       <c r="B50" s="26"/>
       <c r="C50" s="240"/>
       <c r="D50" s="240"/>
@@ -5882,7 +5876,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="389"/>
+      <c r="A51" s="392"/>
       <c r="B51" s="26"/>
       <c r="C51" s="240"/>
       <c r="D51" s="240"/>
@@ -5896,7 +5890,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="389"/>
+      <c r="A52" s="392"/>
       <c r="B52" s="26"/>
       <c r="C52" s="240"/>
       <c r="D52" s="240"/>
@@ -5910,7 +5904,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="389"/>
+      <c r="A53" s="392"/>
       <c r="B53" s="26"/>
       <c r="C53" s="240"/>
       <c r="D53" s="240"/>
@@ -5924,7 +5918,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="389"/>
+      <c r="A54" s="392"/>
       <c r="B54" s="26"/>
       <c r="C54" s="240"/>
       <c r="D54" s="240"/>
@@ -5938,7 +5932,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="389"/>
+      <c r="A55" s="392"/>
       <c r="B55" s="26"/>
       <c r="C55" s="240"/>
       <c r="D55" s="240"/>
@@ -5952,7 +5946,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="389"/>
+      <c r="A56" s="392"/>
       <c r="B56" s="26"/>
       <c r="C56" s="240"/>
       <c r="D56" s="240"/>
@@ -5966,7 +5960,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="389"/>
+      <c r="A57" s="392"/>
       <c r="B57" s="26"/>
       <c r="C57" s="240"/>
       <c r="D57" s="240"/>
@@ -5977,7 +5971,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="389"/>
+      <c r="A58" s="392"/>
       <c r="B58" s="26"/>
       <c r="C58" s="240"/>
       <c r="D58" s="240"/>
@@ -5988,7 +5982,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="389"/>
+      <c r="A59" s="392"/>
       <c r="B59" s="26"/>
       <c r="C59" s="240"/>
       <c r="D59" s="240"/>
@@ -5999,7 +5993,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="389"/>
+      <c r="A60" s="392"/>
       <c r="B60" s="26"/>
       <c r="C60" s="240"/>
       <c r="D60" s="240"/>
@@ -6010,7 +6004,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="389"/>
+      <c r="A61" s="392"/>
       <c r="B61" s="26"/>
       <c r="C61" s="240"/>
       <c r="D61" s="240"/>
@@ -6021,7 +6015,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="389"/>
+      <c r="A62" s="392"/>
       <c r="B62" s="26"/>
       <c r="C62" s="240"/>
       <c r="D62" s="240"/>
@@ -6032,7 +6026,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="389"/>
+      <c r="A63" s="392"/>
       <c r="B63" s="26"/>
       <c r="C63" s="240"/>
       <c r="D63" s="240"/>
@@ -6043,7 +6037,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="389"/>
+      <c r="A64" s="392"/>
       <c r="B64" s="26"/>
       <c r="C64" s="240"/>
       <c r="D64" s="240"/>
@@ -6054,7 +6048,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="389"/>
+      <c r="A65" s="392"/>
       <c r="B65" s="26"/>
       <c r="C65" s="240"/>
       <c r="D65" s="240"/>
@@ -6065,7 +6059,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="389"/>
+      <c r="A66" s="392"/>
       <c r="B66" s="26"/>
       <c r="C66" s="240"/>
       <c r="D66" s="240"/>
@@ -6076,7 +6070,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="389"/>
+      <c r="A67" s="392"/>
       <c r="B67" s="26"/>
       <c r="C67" s="240"/>
       <c r="D67" s="240"/>
@@ -6087,7 +6081,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="389"/>
+      <c r="A68" s="392"/>
       <c r="B68" s="26"/>
       <c r="C68" s="240"/>
       <c r="D68" s="240"/>
@@ -6098,7 +6092,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="389"/>
+      <c r="A69" s="392"/>
       <c r="B69" s="26"/>
       <c r="C69" s="240"/>
       <c r="D69" s="240"/>
@@ -6109,7 +6103,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="389"/>
+      <c r="A70" s="392"/>
       <c r="B70" s="26"/>
       <c r="C70" s="240"/>
       <c r="D70" s="240"/>
@@ -6120,7 +6114,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="389"/>
+      <c r="A71" s="392"/>
       <c r="B71" s="26"/>
       <c r="C71" s="240"/>
       <c r="D71" s="240"/>
@@ -6131,7 +6125,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="389"/>
+      <c r="A72" s="392"/>
       <c r="B72" s="26"/>
       <c r="C72" s="240"/>
       <c r="D72" s="240"/>
@@ -6142,7 +6136,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="389"/>
+      <c r="A73" s="392"/>
       <c r="B73" s="26"/>
       <c r="C73" s="240"/>
       <c r="D73" s="240"/>
@@ -6153,7 +6147,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="389"/>
+      <c r="A74" s="392"/>
       <c r="B74" s="26"/>
       <c r="C74" s="240"/>
       <c r="D74" s="240"/>
@@ -6164,7 +6158,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="389"/>
+      <c r="A75" s="392"/>
       <c r="B75" s="26"/>
       <c r="C75" s="240"/>
       <c r="D75" s="240"/>
@@ -6175,7 +6169,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="389"/>
+      <c r="A76" s="392"/>
       <c r="B76" s="26"/>
       <c r="C76" s="240"/>
       <c r="D76" s="240"/>
@@ -6186,7 +6180,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="389"/>
+      <c r="A77" s="392"/>
       <c r="B77" s="26"/>
       <c r="C77" s="240"/>
       <c r="D77" s="240"/>
@@ -6197,7 +6191,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="389"/>
+      <c r="A78" s="392"/>
       <c r="B78" s="26"/>
       <c r="C78" s="240"/>
       <c r="D78" s="240"/>
@@ -6208,7 +6202,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="389"/>
+      <c r="A79" s="392"/>
       <c r="B79" s="26"/>
       <c r="C79" s="240"/>
       <c r="D79" s="240"/>
@@ -6220,7 +6214,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="389"/>
+      <c r="A80" s="392"/>
       <c r="B80" s="26"/>
       <c r="C80" s="240"/>
       <c r="D80" s="240"/>
@@ -6232,7 +6226,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="389"/>
+      <c r="A81" s="392"/>
       <c r="B81" s="26"/>
       <c r="C81" s="240"/>
       <c r="D81" s="240"/>
@@ -6244,7 +6238,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="389"/>
+      <c r="A82" s="392"/>
       <c r="B82" s="26"/>
       <c r="C82" s="240"/>
       <c r="D82" s="240"/>
@@ -6256,7 +6250,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="389"/>
+      <c r="A83" s="392"/>
       <c r="B83" s="31"/>
       <c r="C83" s="241">
         <f>SUM(C5:C72)</f>
@@ -6319,67 +6313,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="390" t="s">
+      <c r="A1" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="390"/>
-      <c r="C1" s="390"/>
-      <c r="D1" s="390"/>
-      <c r="E1" s="390"/>
-      <c r="F1" s="390"/>
-      <c r="G1" s="390"/>
-      <c r="H1" s="390"/>
-      <c r="I1" s="390"/>
-      <c r="J1" s="390"/>
-      <c r="K1" s="390"/>
-      <c r="L1" s="390"/>
-      <c r="M1" s="390"/>
-      <c r="N1" s="390"/>
-      <c r="O1" s="390"/>
-      <c r="P1" s="390"/>
-      <c r="Q1" s="390"/>
+      <c r="B1" s="401"/>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
+      <c r="N1" s="401"/>
+      <c r="O1" s="401"/>
+      <c r="P1" s="401"/>
+      <c r="Q1" s="401"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="391" t="s">
+      <c r="A2" s="402" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="391"/>
-      <c r="C2" s="391"/>
-      <c r="D2" s="391"/>
-      <c r="E2" s="391"/>
-      <c r="F2" s="391"/>
-      <c r="G2" s="391"/>
-      <c r="H2" s="391"/>
-      <c r="I2" s="391"/>
-      <c r="J2" s="391"/>
-      <c r="K2" s="391"/>
-      <c r="L2" s="391"/>
-      <c r="M2" s="391"/>
-      <c r="N2" s="391"/>
-      <c r="O2" s="391"/>
-      <c r="P2" s="391"/>
-      <c r="Q2" s="391"/>
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="402"/>
+      <c r="E2" s="402"/>
+      <c r="F2" s="402"/>
+      <c r="G2" s="402"/>
+      <c r="H2" s="402"/>
+      <c r="I2" s="402"/>
+      <c r="J2" s="402"/>
+      <c r="K2" s="402"/>
+      <c r="L2" s="402"/>
+      <c r="M2" s="402"/>
+      <c r="N2" s="402"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="402"/>
+      <c r="Q2" s="402"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="392" t="s">
+      <c r="A3" s="403" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="393"/>
-      <c r="C3" s="393"/>
-      <c r="D3" s="393"/>
-      <c r="E3" s="393"/>
-      <c r="F3" s="393"/>
-      <c r="G3" s="393"/>
-      <c r="H3" s="393"/>
-      <c r="I3" s="393"/>
-      <c r="J3" s="393"/>
-      <c r="K3" s="393"/>
-      <c r="L3" s="393"/>
-      <c r="M3" s="393"/>
-      <c r="N3" s="393"/>
-      <c r="O3" s="393"/>
-      <c r="P3" s="393"/>
-      <c r="Q3" s="394"/>
+      <c r="B3" s="404"/>
+      <c r="C3" s="404"/>
+      <c r="D3" s="404"/>
+      <c r="E3" s="404"/>
+      <c r="F3" s="404"/>
+      <c r="G3" s="404"/>
+      <c r="H3" s="404"/>
+      <c r="I3" s="404"/>
+      <c r="J3" s="404"/>
+      <c r="K3" s="404"/>
+      <c r="L3" s="404"/>
+      <c r="M3" s="404"/>
+      <c r="N3" s="404"/>
+      <c r="O3" s="404"/>
+      <c r="P3" s="404"/>
+      <c r="Q3" s="405"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6388,52 +6382,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="395" t="s">
+      <c r="A4" s="406" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="397" t="s">
+      <c r="B4" s="408" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="399" t="s">
+      <c r="C4" s="393" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="399" t="s">
+      <c r="D4" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="399" t="s">
+      <c r="E4" s="393" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="399" t="s">
+      <c r="F4" s="393" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="399" t="s">
+      <c r="G4" s="393" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="399" t="s">
+      <c r="H4" s="393" t="s">
         <v>226</v>
       </c>
-      <c r="I4" s="399" t="s">
+      <c r="I4" s="393" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="399" t="s">
+      <c r="J4" s="393" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="399" t="s">
+      <c r="K4" s="393" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="399" t="s">
+      <c r="L4" s="393" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="399" t="s">
+      <c r="M4" s="393" t="s">
         <v>163</v>
       </c>
-      <c r="N4" s="399" t="s">
+      <c r="N4" s="393" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="407" t="s">
+      <c r="O4" s="399" t="s">
         <v>142</v>
       </c>
-      <c r="P4" s="401" t="s">
+      <c r="P4" s="410" t="s">
         <v>172</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -6446,22 +6440,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="396"/>
-      <c r="B5" s="398"/>
-      <c r="C5" s="400"/>
-      <c r="D5" s="400"/>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="400"/>
-      <c r="J5" s="400"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="400"/>
-      <c r="M5" s="400"/>
-      <c r="N5" s="400"/>
-      <c r="O5" s="408"/>
-      <c r="P5" s="402"/>
+      <c r="A5" s="407"/>
+      <c r="B5" s="409"/>
+      <c r="C5" s="394"/>
+      <c r="D5" s="394"/>
+      <c r="E5" s="394"/>
+      <c r="F5" s="394"/>
+      <c r="G5" s="394"/>
+      <c r="H5" s="394"/>
+      <c r="I5" s="394"/>
+      <c r="J5" s="394"/>
+      <c r="K5" s="394"/>
+      <c r="L5" s="394"/>
+      <c r="M5" s="394"/>
+      <c r="N5" s="394"/>
+      <c r="O5" s="400"/>
+      <c r="P5" s="411"/>
       <c r="Q5" s="121" t="s">
         <v>36</v>
       </c>
@@ -7135,12 +7129,12 @@
         <v>0</v>
       </c>
       <c r="R24" s="76"/>
-      <c r="S24" s="403" t="s">
+      <c r="S24" s="395" t="s">
         <v>187</v>
       </c>
-      <c r="T24" s="403"/>
-      <c r="U24" s="403"/>
-      <c r="V24" s="403"/>
+      <c r="T24" s="395"/>
+      <c r="U24" s="395"/>
+      <c r="V24" s="395"/>
       <c r="W24" s="87"/>
     </row>
     <row r="25" spans="1:23" s="86" customFormat="1">
@@ -7237,11 +7231,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="76"/>
-      <c r="S27" s="404" t="s">
+      <c r="S27" s="396" t="s">
         <v>80</v>
       </c>
-      <c r="T27" s="405"/>
-      <c r="U27" s="406"/>
+      <c r="T27" s="397"/>
+      <c r="U27" s="398"/>
       <c r="V27" s="351">
         <f>SUM(V25:V26)</f>
         <v>4900</v>
@@ -9534,11 +9528,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9555,6 +9544,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9595,15 +9589,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="414" t="s">
+      <c r="A1" s="417" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
-      <c r="D1" s="414"/>
-      <c r="E1" s="414"/>
-      <c r="F1" s="414"/>
-      <c r="G1" s="414"/>
+      <c r="B1" s="417"/>
+      <c r="C1" s="417"/>
+      <c r="D1" s="417"/>
+      <c r="E1" s="417"/>
+      <c r="F1" s="417"/>
+      <c r="G1" s="417"/>
       <c r="H1" s="56"/>
       <c r="I1" s="137"/>
       <c r="J1" s="137"/>
@@ -9696,15 +9690,15 @@
       <c r="CS1" s="132"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="415" t="s">
+      <c r="A2" s="418" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="415"/>
-      <c r="C2" s="415"/>
-      <c r="D2" s="415"/>
-      <c r="E2" s="415"/>
-      <c r="F2" s="415"/>
-      <c r="G2" s="415"/>
+      <c r="B2" s="418"/>
+      <c r="C2" s="418"/>
+      <c r="D2" s="418"/>
+      <c r="E2" s="418"/>
+      <c r="F2" s="418"/>
+      <c r="G2" s="418"/>
       <c r="H2" s="56"/>
       <c r="I2" s="137"/>
       <c r="J2" s="137"/>
@@ -9797,15 +9791,15 @@
       <c r="CS2" s="132"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="416" t="s">
+      <c r="A3" s="419" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="416"/>
-      <c r="C3" s="416"/>
-      <c r="D3" s="416"/>
-      <c r="E3" s="416"/>
-      <c r="F3" s="416"/>
-      <c r="G3" s="416"/>
+      <c r="B3" s="419"/>
+      <c r="C3" s="419"/>
+      <c r="D3" s="419"/>
+      <c r="E3" s="419"/>
+      <c r="F3" s="419"/>
+      <c r="G3" s="419"/>
       <c r="H3" s="56"/>
       <c r="I3" s="137"/>
       <c r="J3" s="137"/>
@@ -13203,12 +13197,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="127"/>
-      <c r="B35" s="411" t="s">
+      <c r="B35" s="414" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="411"/>
-      <c r="D35" s="411"/>
-      <c r="E35" s="411"/>
+      <c r="C35" s="414"/>
+      <c r="D35" s="414"/>
+      <c r="E35" s="414"/>
       <c r="F35" s="128"/>
       <c r="G35" s="133"/>
       <c r="H35" s="133"/>
@@ -14079,10 +14073,10 @@
       <c r="D43" s="201"/>
       <c r="E43" s="171"/>
       <c r="F43" s="128"/>
-      <c r="G43" s="412"/>
-      <c r="H43" s="412"/>
-      <c r="I43" s="412"/>
-      <c r="J43" s="412"/>
+      <c r="G43" s="415"/>
+      <c r="H43" s="415"/>
+      <c r="I43" s="415"/>
+      <c r="J43" s="415"/>
       <c r="K43" s="56"/>
       <c r="L43" s="137"/>
       <c r="M43" s="56"/>
@@ -14395,7 +14389,7 @@
       <c r="A46" s="312" t="s">
         <v>221</v>
       </c>
-      <c r="B46" s="445" t="s">
+      <c r="B46" s="386" t="s">
         <v>67</v>
       </c>
       <c r="C46" s="313"/>
@@ -22224,11 +22218,11 @@
       <c r="CS118" s="132"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="409" t="s">
+      <c r="A119" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="410"/>
-      <c r="C119" s="413"/>
+      <c r="B119" s="413"/>
+      <c r="C119" s="416"/>
       <c r="D119" s="205">
         <f>SUM(D37:D118)</f>
         <v>3114150</v>
@@ -22433,11 +22427,11 @@
       <c r="CS120" s="132"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="409" t="s">
+      <c r="A121" s="412" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="410"/>
-      <c r="C121" s="410"/>
+      <c r="B121" s="413"/>
+      <c r="C121" s="413"/>
       <c r="D121" s="205">
         <f>D119+M121</f>
         <v>3114150</v>
@@ -33671,8 +33665,8 @@
   </sheetPr>
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33695,28 +33689,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="421" t="s">
+      <c r="A1" s="424" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="423"/>
+      <c r="B1" s="425"/>
+      <c r="C1" s="425"/>
+      <c r="D1" s="425"/>
+      <c r="E1" s="426"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="420"/>
-      <c r="J1" s="420"/>
-      <c r="K1" s="420"/>
+      <c r="I1" s="423"/>
+      <c r="J1" s="423"/>
+      <c r="K1" s="423"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="430" t="s">
+      <c r="A2" s="433" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="431"/>
-      <c r="C2" s="431"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="432"/>
+      <c r="B2" s="434"/>
+      <c r="C2" s="434"/>
+      <c r="D2" s="434"/>
+      <c r="E2" s="435"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33737,13 +33731,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="424" t="s">
+      <c r="A3" s="427" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="425"/>
-      <c r="C3" s="425"/>
-      <c r="D3" s="425"/>
-      <c r="E3" s="426"/>
+      <c r="B3" s="428"/>
+      <c r="C3" s="428"/>
+      <c r="D3" s="428"/>
+      <c r="E3" s="429"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33770,13 +33764,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="433" t="s">
+      <c r="A4" s="436" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="434"/>
-      <c r="C4" s="434"/>
-      <c r="D4" s="434"/>
-      <c r="E4" s="435"/>
+      <c r="B4" s="437"/>
+      <c r="C4" s="437"/>
+      <c r="D4" s="437"/>
+      <c r="E4" s="438"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -33847,10 +33841,10 @@
         <v>225420</v>
       </c>
       <c r="C6" s="40"/>
-      <c r="D6" s="446" t="s">
+      <c r="D6" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="447">
+      <c r="E6" s="259">
         <v>1000000</v>
       </c>
       <c r="F6" s="7"/>
@@ -34245,11 +34239,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="306"/>
-      <c r="I17" s="417" t="s">
+      <c r="I17" s="420" t="s">
         <v>185</v>
       </c>
-      <c r="J17" s="417"/>
-      <c r="K17" s="417"/>
+      <c r="J17" s="420"/>
+      <c r="K17" s="420"/>
       <c r="L17" s="357">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -34272,11 +34266,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="306"/>
-      <c r="I18" s="436" t="s">
+      <c r="I18" s="439" t="s">
         <v>121</v>
       </c>
-      <c r="J18" s="436"/>
-      <c r="K18" s="436"/>
+      <c r="J18" s="439"/>
+      <c r="K18" s="439"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -34288,21 +34282,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="427" t="s">
+      <c r="A19" s="430" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="428"/>
-      <c r="C19" s="428"/>
-      <c r="D19" s="428"/>
-      <c r="E19" s="429"/>
+      <c r="B19" s="431"/>
+      <c r="C19" s="431"/>
+      <c r="D19" s="431"/>
+      <c r="E19" s="432"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="418" t="s">
+      <c r="I19" s="421" t="s">
         <v>193</v>
       </c>
-      <c r="J19" s="419"/>
-      <c r="K19" s="419"/>
+      <c r="J19" s="422"/>
+      <c r="K19" s="422"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34330,11 +34324,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="419" t="s">
+      <c r="I20" s="422" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="419"/>
-      <c r="K20" s="419"/>
+      <c r="J20" s="422"/>
+      <c r="K20" s="422"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34361,9 +34355,9 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="437"/>
-      <c r="J21" s="438"/>
-      <c r="K21" s="439"/>
+      <c r="I21" s="440"/>
+      <c r="J21" s="441"/>
+      <c r="K21" s="442"/>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="7"/>
@@ -34386,11 +34380,11 @@
       <c r="E22" s="264">
         <v>267500</v>
       </c>
-      <c r="I22" s="437" t="s">
+      <c r="I22" s="440" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="438"/>
-      <c r="K22" s="439"/>
+      <c r="J22" s="441"/>
+      <c r="K22" s="442"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="7"/>
@@ -34413,11 +34407,11 @@
       <c r="E23" s="264">
         <v>81590</v>
       </c>
-      <c r="I23" s="417" t="s">
+      <c r="I23" s="420" t="s">
         <v>122</v>
       </c>
-      <c r="J23" s="417"/>
-      <c r="K23" s="417"/>
+      <c r="J23" s="420"/>
+      <c r="K23" s="420"/>
       <c r="L23" s="357">
         <f>L17-L18-L19-L20-L21-L22</f>
         <v>218150</v>
@@ -34430,10 +34424,10 @@
       <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18" ht="21.75">
-      <c r="A24" s="448" t="s">
+      <c r="A24" s="387" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="449">
+      <c r="B24" s="388">
         <v>0</v>
       </c>
       <c r="C24" s="38"/>
@@ -37381,10 +37375,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" thickBot="1">
-      <c r="A1" s="440" t="s">
+      <c r="A1" s="443" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="441"/>
+      <c r="B1" s="444"/>
       <c r="C1" s="273">
         <f>C75+H6</f>
         <v>106010</v>
@@ -37739,11 +37733,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="222"/>
-      <c r="G18" s="444" t="s">
+      <c r="G18" s="447" t="s">
         <v>168</v>
       </c>
-      <c r="H18" s="444"/>
-      <c r="I18" s="444"/>
+      <c r="H18" s="447"/>
+      <c r="I18" s="447"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="380" t="s">
@@ -38436,10 +38430,10 @@
       <c r="E74" s="241"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="442" t="s">
+      <c r="A75" s="445" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="443"/>
+      <c r="B75" s="446"/>
       <c r="C75" s="304">
         <f>SUM(C4:C74)</f>
         <v>89610</v>
